--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2019,7 +2019,7 @@
     <t>75310-3</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:reference}
+    <t xml:space="preserve">profile:$this.resolve()}
 </t>
   </si>
   <si>

--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T19:18:46+00:00</t>
+    <t>2022-01-05T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1328,10 +1328,13 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
+    <t>A@t</t>
+  </si>
+  <si>
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.charite.de/fhir/medikationsplan/StructureDefinition/Practitioner)
+    <t xml:space="preserve">Reference(https://www.charite.de/fhir/medikationsplan/StructureDefinition/Practitioner|https://www.charite.de/fhir/medikationsplan/StructureDefinition/Organization)
 </t>
   </si>
   <si>
@@ -1523,6 +1526,10 @@
   </si>
   <si>
     <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.charite.de/fhir/medikationsplan/StructureDefinition/Organization)
+</t>
   </si>
   <si>
     <t>Organization which maintains the composition</t>
@@ -9113,12 +9120,12 @@
         <v>422</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>76</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9141,17 +9148,17 @@
         <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -9200,7 +9207,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>89</v>
@@ -9215,19 +9222,19 @@
         <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -9235,7 +9242,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9261,13 +9268,13 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9317,7 +9324,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>89</v>
@@ -9335,13 +9342,13 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -9352,7 +9359,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9378,13 +9385,13 @@
         <v>165</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9413,10 +9420,10 @@
         <v>236</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -9434,7 +9441,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9452,13 +9459,13 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -9469,7 +9476,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9492,19 +9499,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -9553,7 +9560,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9571,13 +9578,13 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -9588,7 +9595,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9703,7 +9710,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9820,11 +9827,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9846,10 +9853,10 @@
         <v>109</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>112</v>
@@ -9904,7 +9911,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9939,7 +9946,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9965,14 +9972,14 @@
         <v>165</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -10000,10 +10007,10 @@
         <v>236</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -10021,7 +10028,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>89</v>
@@ -10039,10 +10046,10 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -10056,7 +10063,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10082,14 +10089,14 @@
         <v>413</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -10138,7 +10145,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10156,10 +10163,10 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -10173,7 +10180,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10196,17 +10203,17 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -10255,7 +10262,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10273,24 +10280,24 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10304,7 +10311,7 @@
         <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -10313,19 +10320,19 @@
         <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>273</v>
+        <v>488</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -10374,7 +10381,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10392,13 +10399,13 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -10409,7 +10416,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10432,16 +10439,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10491,7 +10498,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10509,13 +10516,13 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
@@ -10526,7 +10533,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10641,7 +10648,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10758,11 +10765,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10784,10 +10791,10 @@
         <v>109</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>112</v>
@@ -10842,7 +10849,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10877,7 +10884,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10903,13 +10910,13 @@
         <v>165</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10938,10 +10945,10 @@
         <v>236</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10959,7 +10966,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>89</v>
@@ -10977,13 +10984,13 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10994,7 +11001,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11017,13 +11024,13 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11074,7 +11081,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>89</v>
@@ -11092,13 +11099,13 @@
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -11109,7 +11116,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11132,19 +11139,19 @@
         <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -11193,7 +11200,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11211,13 +11218,13 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -11228,7 +11235,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11343,7 +11350,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11460,11 +11467,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11486,10 +11493,10 @@
         <v>109</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>112</v>
@@ -11544,7 +11551,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11579,7 +11586,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11605,13 +11612,13 @@
         <v>242</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11640,10 +11647,10 @@
         <v>155</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -11661,7 +11668,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11685,7 +11692,7 @@
         <v>300</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>76</v>
@@ -11696,7 +11703,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11722,10 +11729,10 @@
         <v>267</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11776,7 +11783,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11800,7 +11807,7 @@
         <v>420</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11811,7 +11818,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11834,13 +11841,13 @@
         <v>90</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11891,7 +11898,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11909,7 +11916,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>106</v>
@@ -11926,7 +11933,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11949,13 +11956,13 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11994,7 +12001,7 @@
         <v>76</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
@@ -12004,7 +12011,7 @@
         <v>115</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -12016,16 +12023,16 @@
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -12039,7 +12046,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12154,7 +12161,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12271,11 +12278,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12297,10 +12304,10 @@
         <v>109</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>112</v>
@@ -12355,7 +12362,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12390,11 +12397,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12416,16 +12423,16 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -12474,7 +12481,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12492,10 +12499,10 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -12509,7 +12516,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12535,16 +12542,16 @@
         <v>242</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>76</v>
@@ -12572,10 +12579,10 @@
         <v>155</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>76</v>
@@ -12593,7 +12600,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12628,7 +12635,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12651,17 +12658,17 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12710,7 +12717,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12728,16 +12735,16 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>76</v>
@@ -12745,7 +12752,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12768,16 +12775,16 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12827,7 +12834,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12848,7 +12855,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12862,7 +12869,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12888,13 +12895,13 @@
         <v>175</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12944,7 +12951,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12953,7 +12960,7 @@
         <v>89</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>101</v>
@@ -12962,10 +12969,10 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12979,7 +12986,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13005,16 +13012,16 @@
         <v>165</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -13042,10 +13049,10 @@
         <v>236</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
@@ -13063,7 +13070,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13081,7 +13088,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>106</v>
@@ -13098,7 +13105,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13124,16 +13131,16 @@
         <v>242</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -13161,10 +13168,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>76</v>
@@ -13182,7 +13189,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13200,7 +13207,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>106</v>
@@ -13217,7 +13224,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13240,16 +13247,16 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13299,7 +13306,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13308,7 +13315,7 @@
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>101</v>
@@ -13317,10 +13324,10 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -13334,7 +13341,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13360,16 +13367,16 @@
         <v>242</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13397,10 +13404,10 @@
         <v>169</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13418,7 +13425,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13427,7 +13434,7 @@
         <v>89</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>101</v>
@@ -13436,7 +13443,7 @@
         <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>106</v>
@@ -13453,7 +13460,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13479,13 +13486,13 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13535,7 +13542,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13544,7 +13551,7 @@
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>101</v>
@@ -13553,10 +13560,10 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -13570,10 +13577,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
@@ -13595,13 +13602,13 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13652,7 +13659,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13664,16 +13671,16 @@
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13687,7 +13694,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13802,7 +13809,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13919,11 +13926,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13945,10 +13952,10 @@
         <v>109</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>112</v>
@@ -14003,7 +14010,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14038,11 +14045,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -14064,16 +14071,16 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>76</v>
@@ -14083,7 +14090,7 @@
         <v>76</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>76</v>
@@ -14122,7 +14129,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14140,10 +14147,10 @@
         <v>76</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -14157,7 +14164,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14183,16 +14190,16 @@
         <v>242</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>76</v>
@@ -14220,10 +14227,10 @@
         <v>155</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>76</v>
@@ -14241,7 +14248,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14276,7 +14283,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14391,7 +14398,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14508,7 +14515,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14627,7 +14634,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14742,7 +14749,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14859,7 +14866,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14901,7 +14908,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>76</v>
@@ -14978,7 +14985,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15095,7 +15102,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15135,7 +15142,7 @@
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="R109" t="s" s="2">
         <v>76</v>
@@ -15212,7 +15219,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15329,7 +15336,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15448,7 +15455,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15567,7 +15574,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15590,17 +15597,17 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -15649,7 +15656,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15667,16 +15674,16 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>76</v>
@@ -15684,7 +15691,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15707,16 +15714,16 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15766,7 +15773,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15787,7 +15794,7 @@
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15801,7 +15808,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15827,13 +15834,13 @@
         <v>175</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15883,7 +15890,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15892,7 +15899,7 @@
         <v>89</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>101</v>
@@ -15901,10 +15908,10 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15918,7 +15925,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15944,16 +15951,16 @@
         <v>165</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15981,10 +15988,10 @@
         <v>236</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -16002,7 +16009,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -16020,7 +16027,7 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>106</v>
@@ -16037,7 +16044,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16063,16 +16070,16 @@
         <v>242</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -16100,10 +16107,10 @@
         <v>169</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
@@ -16121,7 +16128,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16139,7 +16146,7 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>106</v>
@@ -16156,7 +16163,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16179,16 +16186,16 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -16238,7 +16245,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16247,7 +16254,7 @@
         <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>101</v>
@@ -16256,10 +16263,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -16273,7 +16280,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16388,7 +16395,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16505,7 +16512,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16622,7 +16629,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16739,7 +16746,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16856,7 +16863,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16973,7 +16980,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16999,16 +17006,16 @@
         <v>242</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -17036,10 +17043,10 @@
         <v>169</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -17057,7 +17064,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17066,7 +17073,7 @@
         <v>89</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>101</v>
@@ -17075,7 +17082,7 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>106</v>
@@ -17092,7 +17099,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17118,13 +17125,13 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17174,7 +17181,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17183,7 +17190,7 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>101</v>
@@ -17192,10 +17199,10 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -17209,10 +17216,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>76</v>
@@ -17234,13 +17241,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -17291,7 +17298,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -17303,16 +17310,16 @@
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -17326,7 +17333,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17441,7 +17448,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17558,11 +17565,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17584,10 +17591,10 @@
         <v>109</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>112</v>
@@ -17642,7 +17649,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -17677,11 +17684,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17703,16 +17710,16 @@
         <v>91</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17761,7 +17768,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17779,10 +17786,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17796,7 +17803,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17822,16 +17829,16 @@
         <v>242</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17859,10 +17866,10 @@
         <v>155</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17880,7 +17887,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17915,7 +17922,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18030,7 +18037,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18147,7 +18154,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18266,7 +18273,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18381,7 +18388,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18498,7 +18505,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18540,7 +18547,7 @@
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R138" t="s" s="2">
         <v>76</v>
@@ -18617,7 +18624,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18734,7 +18741,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18774,7 +18781,7 @@
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="R140" t="s" s="2">
         <v>76</v>
@@ -18851,7 +18858,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18968,7 +18975,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19087,7 +19094,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19206,7 +19213,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19229,17 +19236,17 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -19288,7 +19295,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
@@ -19306,16 +19313,16 @@
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>76</v>
@@ -19323,7 +19330,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19346,16 +19353,16 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -19405,7 +19412,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -19426,7 +19433,7 @@
         <v>76</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>76</v>
@@ -19440,7 +19447,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19466,13 +19473,13 @@
         <v>175</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -19522,7 +19529,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
@@ -19531,7 +19538,7 @@
         <v>89</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>101</v>
@@ -19540,10 +19547,10 @@
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
@@ -19557,7 +19564,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19583,16 +19590,16 @@
         <v>165</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -19620,10 +19627,10 @@
         <v>236</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>76</v>
@@ -19641,7 +19648,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
@@ -19659,7 +19666,7 @@
         <v>76</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>106</v>
@@ -19676,7 +19683,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19702,16 +19709,16 @@
         <v>242</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -19739,10 +19746,10 @@
         <v>169</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>76</v>
@@ -19760,7 +19767,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -19778,7 +19785,7 @@
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>106</v>
@@ -19795,7 +19802,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19818,16 +19825,16 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19877,7 +19884,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -19886,7 +19893,7 @@
         <v>78</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>101</v>
@@ -19895,10 +19902,10 @@
         <v>76</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19912,7 +19919,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20027,7 +20034,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20144,7 +20151,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20261,7 +20268,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20378,7 +20385,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20495,7 +20502,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20612,7 +20619,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20638,16 +20645,16 @@
         <v>242</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -20675,10 +20682,10 @@
         <v>169</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>76</v>
@@ -20696,7 +20703,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
@@ -20705,7 +20712,7 @@
         <v>89</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>101</v>
@@ -20714,7 +20721,7 @@
         <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>106</v>
@@ -20731,7 +20738,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20757,13 +20764,13 @@
         <v>76</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20813,7 +20820,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
@@ -20822,7 +20829,7 @@
         <v>78</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>101</v>
@@ -20831,10 +20838,10 @@
         <v>76</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
@@ -20848,10 +20855,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>76</v>
@@ -20873,13 +20880,13 @@
         <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -20930,7 +20937,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
@@ -20942,16 +20949,16 @@
         <v>76</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>76</v>
@@ -20965,7 +20972,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21080,7 +21087,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21197,11 +21204,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21223,10 +21230,10 @@
         <v>109</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>112</v>
@@ -21281,7 +21288,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -21316,11 +21323,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21342,16 +21349,16 @@
         <v>91</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>76</v>
@@ -21400,7 +21407,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -21418,10 +21425,10 @@
         <v>76</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
@@ -21435,7 +21442,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21461,16 +21468,16 @@
         <v>242</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -21498,10 +21505,10 @@
         <v>155</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>76</v>
@@ -21519,7 +21526,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21554,7 +21561,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21669,7 +21676,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21786,7 +21793,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21905,7 +21912,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22020,7 +22027,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22137,7 +22144,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22179,7 +22186,7 @@
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R169" t="s" s="2">
         <v>76</v>
@@ -22256,7 +22263,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22373,7 +22380,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22413,7 +22420,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>76</v>
@@ -22490,7 +22497,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22607,7 +22614,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22726,7 +22733,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22845,7 +22852,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22868,17 +22875,17 @@
         <v>76</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>76</v>
@@ -22927,7 +22934,7 @@
         <v>76</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>77</v>
@@ -22945,16 +22952,16 @@
         <v>76</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>76</v>
@@ -22962,7 +22969,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22985,16 +22992,16 @@
         <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -23044,7 +23051,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>77</v>
@@ -23065,7 +23072,7 @@
         <v>76</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>76</v>
@@ -23079,7 +23086,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23105,13 +23112,13 @@
         <v>175</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
@@ -23161,7 +23168,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
@@ -23170,7 +23177,7 @@
         <v>89</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>101</v>
@@ -23179,10 +23186,10 @@
         <v>76</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>76</v>
@@ -23196,7 +23203,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23222,16 +23229,16 @@
         <v>165</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>76</v>
@@ -23259,10 +23266,10 @@
         <v>236</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>76</v>
@@ -23280,7 +23287,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>77</v>
@@ -23298,7 +23305,7 @@
         <v>76</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>106</v>
@@ -23315,7 +23322,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23341,16 +23348,16 @@
         <v>242</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>76</v>
@@ -23378,10 +23385,10 @@
         <v>169</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>76</v>
@@ -23399,7 +23406,7 @@
         <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>77</v>
@@ -23417,7 +23424,7 @@
         <v>76</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>106</v>
@@ -23434,7 +23441,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23457,16 +23464,16 @@
         <v>76</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -23504,17 +23511,17 @@
         <v>76</v>
       </c>
       <c r="AA180" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AB180" s="2"/>
       <c r="AC180" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD180" t="s" s="2">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>77</v>
@@ -23523,7 +23530,7 @@
         <v>78</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>101</v>
@@ -23532,10 +23539,10 @@
         <v>76</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>76</v>
@@ -23549,10 +23556,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>76</v>
@@ -23574,16 +23581,16 @@
         <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -23633,7 +23640,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>77</v>
@@ -23642,7 +23649,7 @@
         <v>78</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>101</v>
@@ -23651,10 +23658,10 @@
         <v>76</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>76</v>
@@ -23668,7 +23675,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23783,7 +23790,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23900,7 +23907,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24017,7 +24024,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24134,7 +24141,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24251,7 +24258,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24368,10 +24375,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C188" t="s" s="2">
         <v>76</v>
@@ -24393,16 +24400,16 @@
         <v>76</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
@@ -24452,7 +24459,7 @@
         <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>77</v>
@@ -24461,7 +24468,7 @@
         <v>78</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI188" t="s" s="2">
         <v>101</v>
@@ -24470,10 +24477,10 @@
         <v>76</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>76</v>
@@ -24487,7 +24494,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24602,7 +24609,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24719,7 +24726,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24836,7 +24843,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24953,7 +24960,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25070,7 +25077,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25187,7 +25194,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25213,16 +25220,16 @@
         <v>242</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>76</v>
@@ -25250,10 +25257,10 @@
         <v>169</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>76</v>
@@ -25271,7 +25278,7 @@
         <v>76</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>77</v>
@@ -25280,7 +25287,7 @@
         <v>89</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI195" t="s" s="2">
         <v>101</v>
@@ -25289,7 +25296,7 @@
         <v>76</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>106</v>
@@ -25306,7 +25313,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25332,13 +25339,13 @@
         <v>76</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
@@ -25388,7 +25395,7 @@
         <v>76</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>77</v>
@@ -25397,7 +25404,7 @@
         <v>78</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>101</v>
@@ -25406,10 +25413,10 @@
         <v>76</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>76</v>
@@ -25423,10 +25430,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C197" t="s" s="2">
         <v>76</v>
@@ -25448,13 +25455,13 @@
         <v>76</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -25505,7 +25512,7 @@
         <v>76</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>77</v>
@@ -25517,16 +25524,16 @@
         <v>76</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>76</v>
@@ -25540,7 +25547,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25655,7 +25662,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25772,11 +25779,11 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25798,10 +25805,10 @@
         <v>109</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M200" t="s" s="2">
         <v>112</v>
@@ -25856,7 +25863,7 @@
         <v>76</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -25891,11 +25898,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25917,16 +25924,16 @@
         <v>91</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>76</v>
@@ -25936,7 +25943,7 @@
         <v>76</v>
       </c>
       <c r="R201" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>76</v>
@@ -25975,7 +25982,7 @@
         <v>76</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
@@ -25993,10 +26000,10 @@
         <v>76</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>76</v>
@@ -26010,7 +26017,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26036,16 +26043,16 @@
         <v>242</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>76</v>
@@ -26073,10 +26080,10 @@
         <v>155</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>76</v>
@@ -26094,7 +26101,7 @@
         <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -26129,7 +26136,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26244,7 +26251,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26361,7 +26368,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26480,7 +26487,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26595,7 +26602,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26712,7 +26719,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26754,7 +26761,7 @@
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R208" t="s" s="2">
         <v>76</v>
@@ -26831,7 +26838,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26948,7 +26955,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26988,7 +26995,7 @@
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="R210" t="s" s="2">
         <v>76</v>
@@ -27065,7 +27072,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27182,7 +27189,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27301,7 +27308,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27420,7 +27427,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27443,17 +27450,17 @@
         <v>76</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>76</v>
@@ -27502,7 +27509,7 @@
         <v>76</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>77</v>
@@ -27520,16 +27527,16 @@
         <v>76</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>76</v>
@@ -27537,7 +27544,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27560,16 +27567,16 @@
         <v>76</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
@@ -27619,7 +27626,7 @@
         <v>76</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>77</v>
@@ -27640,7 +27647,7 @@
         <v>76</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>76</v>
@@ -27654,7 +27661,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27680,13 +27687,13 @@
         <v>175</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
@@ -27736,7 +27743,7 @@
         <v>76</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>77</v>
@@ -27745,7 +27752,7 @@
         <v>89</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>101</v>
@@ -27754,10 +27761,10 @@
         <v>76</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>76</v>
@@ -27771,7 +27778,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27797,16 +27804,16 @@
         <v>165</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>76</v>
@@ -27834,10 +27841,10 @@
         <v>236</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>76</v>
@@ -27855,7 +27862,7 @@
         <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>77</v>
@@ -27873,7 +27880,7 @@
         <v>76</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>106</v>
@@ -27890,7 +27897,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27916,16 +27923,16 @@
         <v>242</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>76</v>
@@ -27953,10 +27960,10 @@
         <v>169</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>76</v>
@@ -27974,7 +27981,7 @@
         <v>76</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>77</v>
@@ -27992,7 +27999,7 @@
         <v>76</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>106</v>
@@ -28009,7 +28016,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28032,16 +28039,16 @@
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
@@ -28079,17 +28086,17 @@
         <v>76</v>
       </c>
       <c r="AA219" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AB219" s="2"/>
       <c r="AC219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>77</v>
@@ -28098,7 +28105,7 @@
         <v>78</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>101</v>
@@ -28107,10 +28114,10 @@
         <v>76</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>76</v>
@@ -28124,10 +28131,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>76</v>
@@ -28149,16 +28156,16 @@
         <v>76</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
@@ -28208,7 +28215,7 @@
         <v>76</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>77</v>
@@ -28217,7 +28224,7 @@
         <v>78</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI220" t="s" s="2">
         <v>101</v>
@@ -28226,10 +28233,10 @@
         <v>76</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>76</v>
@@ -28243,7 +28250,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28358,7 +28365,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28475,7 +28482,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28592,7 +28599,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28709,7 +28716,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28826,7 +28833,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28943,10 +28950,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C227" t="s" s="2">
         <v>76</v>
@@ -28968,16 +28975,16 @@
         <v>76</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
@@ -29027,7 +29034,7 @@
         <v>76</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>77</v>
@@ -29036,7 +29043,7 @@
         <v>78</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>101</v>
@@ -29045,10 +29052,10 @@
         <v>76</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>76</v>
@@ -29062,7 +29069,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -29177,7 +29184,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29294,7 +29301,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29411,7 +29418,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29528,7 +29535,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29645,7 +29652,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29762,10 +29769,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C234" t="s" s="2">
         <v>76</v>
@@ -29787,16 +29794,16 @@
         <v>76</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
@@ -29846,7 +29853,7 @@
         <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>77</v>
@@ -29855,7 +29862,7 @@
         <v>78</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI234" t="s" s="2">
         <v>101</v>
@@ -29864,10 +29871,10 @@
         <v>76</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>76</v>
@@ -29881,7 +29888,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29996,7 +30003,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -30113,7 +30120,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30230,7 +30237,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30347,7 +30354,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30464,7 +30471,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30581,7 +30588,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30607,16 +30614,16 @@
         <v>242</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>76</v>
@@ -30644,10 +30651,10 @@
         <v>169</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>76</v>
@@ -30665,7 +30672,7 @@
         <v>76</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>77</v>
@@ -30674,7 +30681,7 @@
         <v>89</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>101</v>
@@ -30683,7 +30690,7 @@
         <v>76</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AL241" t="s" s="2">
         <v>106</v>
@@ -30700,7 +30707,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30726,13 +30733,13 @@
         <v>76</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" t="s" s="2">
@@ -30782,7 +30789,7 @@
         <v>76</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>77</v>
@@ -30791,7 +30798,7 @@
         <v>78</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI242" t="s" s="2">
         <v>101</v>
@@ -30800,10 +30807,10 @@
         <v>76</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>76</v>
@@ -30817,10 +30824,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>76</v>
@@ -30842,13 +30849,13 @@
         <v>76</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -30899,7 +30906,7 @@
         <v>76</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>77</v>
@@ -30911,16 +30918,16 @@
         <v>76</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>76</v>
@@ -30934,7 +30941,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -31049,7 +31056,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -31166,11 +31173,11 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31192,10 +31199,10 @@
         <v>109</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>112</v>
@@ -31250,7 +31257,7 @@
         <v>76</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>77</v>
@@ -31285,11 +31292,11 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31311,16 +31318,16 @@
         <v>91</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>76</v>
@@ -31369,7 +31376,7 @@
         <v>76</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>77</v>
@@ -31387,10 +31394,10 @@
         <v>76</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>76</v>
@@ -31404,7 +31411,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31430,16 +31437,16 @@
         <v>242</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>76</v>
@@ -31467,10 +31474,10 @@
         <v>155</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>76</v>
@@ -31488,7 +31495,7 @@
         <v>76</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>77</v>
@@ -31523,7 +31530,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31638,7 +31645,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31755,7 +31762,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31874,7 +31881,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31989,7 +31996,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -32106,7 +32113,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -32148,7 +32155,7 @@
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R254" t="s" s="2">
         <v>76</v>
@@ -32225,7 +32232,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32342,7 +32349,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32382,7 +32389,7 @@
       </c>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="R256" t="s" s="2">
         <v>76</v>
@@ -32459,7 +32466,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32576,7 +32583,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32695,7 +32702,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32814,7 +32821,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32837,17 +32844,17 @@
         <v>76</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>76</v>
@@ -32896,7 +32903,7 @@
         <v>76</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>77</v>
@@ -32914,16 +32921,16 @@
         <v>76</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO260" t="s" s="2">
         <v>76</v>
@@ -32931,7 +32938,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32954,16 +32961,16 @@
         <v>76</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
@@ -33013,7 +33020,7 @@
         <v>76</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>77</v>
@@ -33034,7 +33041,7 @@
         <v>76</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>76</v>
@@ -33048,7 +33055,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -33074,13 +33081,13 @@
         <v>175</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
@@ -33130,7 +33137,7 @@
         <v>76</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>77</v>
@@ -33139,7 +33146,7 @@
         <v>89</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI262" t="s" s="2">
         <v>101</v>
@@ -33148,10 +33155,10 @@
         <v>76</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>76</v>
@@ -33160,12 +33167,12 @@
         <v>76</v>
       </c>
       <c r="AO262" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -33191,16 +33198,16 @@
         <v>165</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>76</v>
@@ -33228,10 +33235,10 @@
         <v>236</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>76</v>
@@ -33249,7 +33256,7 @@
         <v>76</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>77</v>
@@ -33267,7 +33274,7 @@
         <v>76</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL263" t="s" s="2">
         <v>106</v>
@@ -33284,7 +33291,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33310,16 +33317,16 @@
         <v>242</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>76</v>
@@ -33347,10 +33354,10 @@
         <v>169</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>76</v>
@@ -33368,7 +33375,7 @@
         <v>76</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>77</v>
@@ -33386,7 +33393,7 @@
         <v>76</v>
       </c>
       <c r="AK264" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL264" t="s" s="2">
         <v>106</v>
@@ -33403,7 +33410,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33426,16 +33433,16 @@
         <v>76</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
@@ -33485,7 +33492,7 @@
         <v>76</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>77</v>
@@ -33494,7 +33501,7 @@
         <v>78</v>
       </c>
       <c r="AH265" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI265" t="s" s="2">
         <v>101</v>
@@ -33503,10 +33510,10 @@
         <v>76</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>76</v>
@@ -33520,7 +33527,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33546,16 +33553,16 @@
         <v>242</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>76</v>
@@ -33583,10 +33590,10 @@
         <v>169</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>76</v>
@@ -33604,7 +33611,7 @@
         <v>76</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>77</v>
@@ -33613,7 +33620,7 @@
         <v>89</v>
       </c>
       <c r="AH266" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AI266" t="s" s="2">
         <v>101</v>
@@ -33622,7 +33629,7 @@
         <v>76</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AL266" t="s" s="2">
         <v>106</v>
@@ -33639,7 +33646,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33665,13 +33672,13 @@
         <v>76</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" t="s" s="2">
@@ -33721,7 +33728,7 @@
         <v>76</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>77</v>
@@ -33730,7 +33737,7 @@
         <v>78</v>
       </c>
       <c r="AH267" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI267" t="s" s="2">
         <v>101</v>
@@ -33739,10 +33746,10 @@
         <v>76</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-composition.xlsx
+++ b/StructureDefinition-mp4p-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
